--- a/imagenesSeg/si/Saturacion/caracterForma_sat.xlsx
+++ b/imagenesSeg/si/Saturacion/caracterForma_sat.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Daniela\Tesis\Trabajo-de-grado_Artefactos\imagenesSeg\si\Saturacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="248">
   <si>
     <t>Archivo</t>
   </si>
@@ -1105,8 +1099,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,19 +1163,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1223,7 +1209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,10 +1241,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1290,7 +1275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1466,16 +1450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1509,7 +1491,7 @@
         <v>194680</v>
       </c>
       <c r="E2">
-        <v>4878.7550659179688</v>
+        <v>4878.755065917969</v>
       </c>
       <c r="F2" t="s">
         <v>100</v>
@@ -1518,7 +1500,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1541,7 +1523,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1564,7 +1546,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1578,7 +1560,7 @@
         <v>38859</v>
       </c>
       <c r="E5">
-        <v>1139.6477584838869</v>
+        <v>1139.647758483887</v>
       </c>
       <c r="F5" t="s">
         <v>103</v>
@@ -1587,7 +1569,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1610,7 +1592,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1624,7 +1606,7 @@
         <v>5456</v>
       </c>
       <c r="E7">
-        <v>347.45249938964838</v>
+        <v>347.4524993896484</v>
       </c>
       <c r="F7" t="s">
         <v>104</v>
@@ -1633,7 +1615,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1656,7 +1638,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1670,7 +1652,7 @@
         <v>19891</v>
       </c>
       <c r="E9">
-        <v>548.60374069213867</v>
+        <v>548.6037406921387</v>
       </c>
       <c r="F9" t="s">
         <v>105</v>
@@ -1679,7 +1661,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1693,7 +1675,7 @@
         <v>28532</v>
       </c>
       <c r="E10">
-        <v>2998.0075531005859</v>
+        <v>2998.007553100586</v>
       </c>
       <c r="F10" t="s">
         <v>106</v>
@@ -1702,7 +1684,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1725,7 +1707,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1739,7 +1721,7 @@
         <v>20278.5</v>
       </c>
       <c r="E12">
-        <v>643.49772453308105</v>
+        <v>643.4977245330811</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -1748,7 +1730,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1762,7 +1744,7 @@
         <v>76811.5</v>
       </c>
       <c r="E13">
-        <v>3615.2325134277339</v>
+        <v>3615.232513427734</v>
       </c>
       <c r="F13" t="s">
         <v>108</v>
@@ -1771,7 +1753,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1785,7 +1767,7 @@
         <v>97928</v>
       </c>
       <c r="E14">
-        <v>3024.7953910827641</v>
+        <v>3024.795391082764</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -1794,7 +1776,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1808,7 +1790,7 @@
         <v>91821</v>
       </c>
       <c r="E15">
-        <v>3071.2951049804692</v>
+        <v>3071.295104980469</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -1817,7 +1799,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1840,7 +1822,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1863,7 +1845,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1886,7 +1868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1900,7 +1882,7 @@
         <v>68041</v>
       </c>
       <c r="E19">
-        <v>1097.0769195556641</v>
+        <v>1097.076919555664</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -1909,7 +1891,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1932,7 +1914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1946,7 +1928,7 @@
         <v>104969.5</v>
       </c>
       <c r="E21">
-        <v>1357.4835891723631</v>
+        <v>1357.483589172363</v>
       </c>
       <c r="F21" t="s">
         <v>113</v>
@@ -1955,7 +1937,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1978,7 +1960,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2001,7 +1983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2015,7 +1997,7 @@
         <v>30577</v>
       </c>
       <c r="E24">
-        <v>1324.5999298095701</v>
+        <v>1324.59992980957</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
@@ -2024,7 +2006,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2047,7 +2029,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2061,7 +2043,7 @@
         <v>53350.5</v>
       </c>
       <c r="E26">
-        <v>1129.4110813140869</v>
+        <v>1129.411081314087</v>
       </c>
       <c r="F26" t="s">
         <v>116</v>
@@ -2070,7 +2052,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2084,7 +2066,7 @@
         <v>10534.5</v>
       </c>
       <c r="E27">
-        <v>1331.5596580505371</v>
+        <v>1331.559658050537</v>
       </c>
       <c r="F27" t="s">
         <v>117</v>
@@ -2093,7 +2075,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2107,7 +2089,7 @@
         <v>267995</v>
       </c>
       <c r="E28">
-        <v>4152.3689575195313</v>
+        <v>4152.368957519531</v>
       </c>
       <c r="F28" t="s">
         <v>118</v>
@@ -2116,7 +2098,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2130,7 +2112,7 @@
         <v>4801</v>
       </c>
       <c r="E29">
-        <v>1281.3662261962891</v>
+        <v>1281.366226196289</v>
       </c>
       <c r="F29" t="s">
         <v>119</v>
@@ -2139,7 +2121,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2162,7 +2144,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2176,7 +2158,7 @@
         <v>6747</v>
       </c>
       <c r="E31">
-        <v>1263.7429046630859</v>
+        <v>1263.742904663086</v>
       </c>
       <c r="F31" t="s">
         <v>121</v>
@@ -2185,7 +2167,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2199,7 +2181,7 @@
         <v>13758.5</v>
       </c>
       <c r="E32">
-        <v>1105.1996765136721</v>
+        <v>1105.199676513672</v>
       </c>
       <c r="F32" t="s">
         <v>122</v>
@@ -2208,7 +2190,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2231,7 +2213,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2245,7 +2227,7 @@
         <v>198496.5</v>
       </c>
       <c r="E34">
-        <v>2169.9282760620122</v>
+        <v>2169.928276062012</v>
       </c>
       <c r="F34" t="s">
         <v>123</v>
@@ -2254,7 +2236,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2277,7 +2259,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2291,7 +2273,7 @@
         <v>4543.5</v>
       </c>
       <c r="E36">
-        <v>327.06489181518549</v>
+        <v>327.0648918151855</v>
       </c>
       <c r="F36" t="s">
         <v>124</v>
@@ -2300,7 +2282,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2314,7 +2296,7 @@
         <v>30929.5</v>
       </c>
       <c r="E37">
-        <v>776.82976913452148</v>
+        <v>776.8297691345215</v>
       </c>
       <c r="F37" t="s">
         <v>125</v>
@@ -2323,7 +2305,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2346,7 +2328,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2360,7 +2342,7 @@
         <v>60607</v>
       </c>
       <c r="E39">
-        <v>983.43484115600586</v>
+        <v>983.4348411560059</v>
       </c>
       <c r="F39" t="s">
         <v>126</v>
@@ -2369,7 +2351,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2392,7 +2374,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2406,7 +2388,7 @@
         <v>3563</v>
       </c>
       <c r="E41">
-        <v>340.77566719055181</v>
+        <v>340.7756671905518</v>
       </c>
       <c r="F41" t="s">
         <v>127</v>
@@ -2415,7 +2397,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2429,7 +2411,7 @@
         <v>5856</v>
       </c>
       <c r="E42">
-        <v>520.86968994140625</v>
+        <v>520.8696899414062</v>
       </c>
       <c r="F42" t="s">
         <v>128</v>
@@ -2438,7 +2420,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2461,7 +2443,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2475,7 +2457,7 @@
         <v>14460</v>
       </c>
       <c r="E44">
-        <v>711.50711822509766</v>
+        <v>711.5071182250977</v>
       </c>
       <c r="F44" t="s">
         <v>129</v>
@@ -2484,7 +2466,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2507,7 +2489,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2521,7 +2503,7 @@
         <v>5829</v>
       </c>
       <c r="E46">
-        <v>313.58186149597168</v>
+        <v>313.5818614959717</v>
       </c>
       <c r="F46" t="s">
         <v>130</v>
@@ -2530,7 +2512,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2544,7 +2526,7 @@
         <v>126346.5</v>
       </c>
       <c r="E47">
-        <v>2984.0452270507808</v>
+        <v>2984.045227050781</v>
       </c>
       <c r="F47" t="s">
         <v>131</v>
@@ -2553,7 +2535,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2576,7 +2558,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2590,7 +2572,7 @@
         <v>6127</v>
       </c>
       <c r="E49">
-        <v>371.40251350402832</v>
+        <v>371.4025135040283</v>
       </c>
       <c r="F49" t="s">
         <v>133</v>
@@ -2599,7 +2581,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2613,7 +2595,7 @@
         <v>38145</v>
       </c>
       <c r="E50">
-        <v>958.80579566955566</v>
+        <v>958.8057956695557</v>
       </c>
       <c r="F50" t="s">
         <v>134</v>
@@ -2622,7 +2604,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2645,7 +2627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2668,7 +2650,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2682,7 +2664,7 @@
         <v>118671</v>
       </c>
       <c r="E53">
-        <v>3075.5124969482422</v>
+        <v>3075.512496948242</v>
       </c>
       <c r="F53" t="s">
         <v>136</v>
@@ -2691,7 +2673,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2714,7 +2696,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2737,7 +2719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2751,7 +2733,7 @@
         <v>3616.5</v>
       </c>
       <c r="E56">
-        <v>316.40850067138672</v>
+        <v>316.4085006713867</v>
       </c>
       <c r="F56" t="s">
         <v>138</v>
@@ -2760,7 +2742,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2774,7 +2756,7 @@
         <v>4217.5</v>
       </c>
       <c r="E57">
-        <v>366.20524978637701</v>
+        <v>366.205249786377</v>
       </c>
       <c r="F57" t="s">
         <v>139</v>
@@ -2783,7 +2765,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2797,7 +2779,7 @@
         <v>100197.5</v>
       </c>
       <c r="E58">
-        <v>2896.5636596679692</v>
+        <v>2896.563659667969</v>
       </c>
       <c r="F58" t="s">
         <v>140</v>
@@ -2806,7 +2788,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2829,7 +2811,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2843,7 +2825,7 @@
         <v>38141.5</v>
       </c>
       <c r="E60">
-        <v>963.04022884368896</v>
+        <v>963.040228843689</v>
       </c>
       <c r="F60" t="s">
         <v>141</v>
@@ -2852,7 +2834,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2866,7 +2848,7 @@
         <v>905</v>
       </c>
       <c r="E61">
-        <v>150.69182682037351</v>
+        <v>150.6918268203735</v>
       </c>
       <c r="F61" t="s">
         <v>142</v>
@@ -2875,7 +2857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2889,7 +2871,7 @@
         <v>11806</v>
       </c>
       <c r="E62">
-        <v>757.61591243743896</v>
+        <v>757.615912437439</v>
       </c>
       <c r="F62" t="s">
         <v>143</v>
@@ -2898,7 +2880,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2912,7 +2894,7 @@
         <v>426</v>
       </c>
       <c r="E63">
-        <v>93.327404022216797</v>
+        <v>93.3274040222168</v>
       </c>
       <c r="F63" t="s">
         <v>144</v>
@@ -2921,7 +2903,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2944,7 +2926,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2967,7 +2949,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2981,7 +2963,7 @@
         <v>50012</v>
       </c>
       <c r="E66">
-        <v>1104.9581356048579</v>
+        <v>1104.958135604858</v>
       </c>
       <c r="F66" t="s">
         <v>147</v>
@@ -2990,7 +2972,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3004,7 +2986,7 @@
         <v>35600</v>
       </c>
       <c r="E67">
-        <v>961.15849685668945</v>
+        <v>961.1584968566895</v>
       </c>
       <c r="F67" t="s">
         <v>148</v>
@@ -3013,7 +2995,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3027,7 +3009,7 @@
         <v>9386</v>
       </c>
       <c r="E68">
-        <v>455.66859722137451</v>
+        <v>455.6685972213745</v>
       </c>
       <c r="F68" t="s">
         <v>149</v>
@@ -3036,7 +3018,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3059,7 +3041,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3082,7 +3064,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3105,7 +3087,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3128,7 +3110,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3151,7 +3133,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3174,7 +3156,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3197,7 +3179,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3220,7 +3202,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3234,7 +3216,7 @@
         <v>4401.5</v>
       </c>
       <c r="E77">
-        <v>356.08680820465088</v>
+        <v>356.0868082046509</v>
       </c>
       <c r="F77" t="s">
         <v>150</v>
@@ -3243,7 +3225,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3266,7 +3248,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3289,7 +3271,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3303,7 +3285,7 @@
         <v>1020</v>
       </c>
       <c r="E80">
-        <v>159.01557636260989</v>
+        <v>159.0155763626099</v>
       </c>
       <c r="F80" t="s">
         <v>153</v>
@@ -3312,7 +3294,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3335,7 +3317,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3358,7 +3340,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3372,7 +3354,7 @@
         <v>6756</v>
       </c>
       <c r="E83">
-        <v>502.17015266418463</v>
+        <v>502.1701526641846</v>
       </c>
       <c r="F83" t="s">
         <v>156</v>
@@ -3381,7 +3363,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3395,7 +3377,7 @@
         <v>15537</v>
       </c>
       <c r="E84">
-        <v>578.75764465332031</v>
+        <v>578.7576446533203</v>
       </c>
       <c r="F84" t="s">
         <v>157</v>
@@ -3404,7 +3386,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3418,7 +3400,7 @@
         <v>40109</v>
       </c>
       <c r="E85">
-        <v>880.85002899169922</v>
+        <v>880.8500289916992</v>
       </c>
       <c r="F85" t="s">
         <v>158</v>
@@ -3427,7 +3409,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3441,7 +3423,7 @@
         <v>36133.5</v>
       </c>
       <c r="E86">
-        <v>1418.3402366638179</v>
+        <v>1418.340236663818</v>
       </c>
       <c r="F86" t="s">
         <v>159</v>
@@ -3450,7 +3432,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3473,7 +3455,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3487,7 +3469,7 @@
         <v>48883.5</v>
       </c>
       <c r="E88">
-        <v>906.02614593505859</v>
+        <v>906.0261459350586</v>
       </c>
       <c r="F88" t="s">
         <v>161</v>
@@ -3496,7 +3478,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3510,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>5.6568541526794434</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F89" t="s">
         <v>162</v>
@@ -3519,7 +3501,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3533,7 +3515,7 @@
         <v>11012.5</v>
       </c>
       <c r="E90">
-        <v>773.99343204498291</v>
+        <v>773.9934320449829</v>
       </c>
       <c r="F90" t="s">
         <v>163</v>
@@ -3542,7 +3524,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3556,7 +3538,7 @@
         <v>24179</v>
       </c>
       <c r="E91">
-        <v>687.59637832641602</v>
+        <v>687.596378326416</v>
       </c>
       <c r="F91" t="s">
         <v>164</v>
@@ -3565,7 +3547,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3579,7 +3561,7 @@
         <v>35310</v>
       </c>
       <c r="E92">
-        <v>852.55987548828125</v>
+        <v>852.5598754882812</v>
       </c>
       <c r="F92" t="s">
         <v>165</v>
@@ -3588,7 +3570,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3602,7 +3584,7 @@
         <v>12960.5</v>
       </c>
       <c r="E93">
-        <v>544.77612686157227</v>
+        <v>544.7761268615723</v>
       </c>
       <c r="F93" t="s">
         <v>166</v>
@@ -3611,7 +3593,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3625,7 +3607,7 @@
         <v>18220.5</v>
       </c>
       <c r="E94">
-        <v>588.75076293945313</v>
+        <v>588.7507629394531</v>
       </c>
       <c r="F94" t="s">
         <v>167</v>
@@ -3634,7 +3616,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3648,1611 +3630,12 @@
         <v>440967.5</v>
       </c>
       <c r="E95">
-        <v>2754.5373840332031</v>
+        <v>2754.537384033203</v>
       </c>
       <c r="F95" t="s">
         <v>168</v>
       </c>
       <c r="G95" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>194680</v>
-      </c>
-      <c r="E2">
-        <v>4878.7550659179688</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>286541.5</v>
-      </c>
-      <c r="E3">
-        <v>3821.694702148438</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>38859</v>
-      </c>
-      <c r="E4">
-        <v>1139.6477584838869</v>
-      </c>
-      <c r="F4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5456</v>
-      </c>
-      <c r="E5">
-        <v>347.45249938964838</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>19891</v>
-      </c>
-      <c r="E6">
-        <v>548.60374069213867</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>28532</v>
-      </c>
-      <c r="E7">
-        <v>2998.0075531005859</v>
-      </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>20278.5</v>
-      </c>
-      <c r="E8">
-        <v>643.49772453308105</v>
-      </c>
-      <c r="F8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>76811.5</v>
-      </c>
-      <c r="E9">
-        <v>3615.2325134277339</v>
-      </c>
-      <c r="F9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>97928</v>
-      </c>
-      <c r="E10">
-        <v>3024.7953910827641</v>
-      </c>
-      <c r="F10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>91821</v>
-      </c>
-      <c r="E11">
-        <v>3071.2951049804692</v>
-      </c>
-      <c r="F11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>63106.5</v>
-      </c>
-      <c r="E12">
-        <v>1095.290885925293</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>68041</v>
-      </c>
-      <c r="E13">
-        <v>1097.0769195556641</v>
-      </c>
-      <c r="F13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>104969.5</v>
-      </c>
-      <c r="E14">
-        <v>1357.4835891723631</v>
-      </c>
-      <c r="F14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>140843.5</v>
-      </c>
-      <c r="E15">
-        <v>3778.684448242188</v>
-      </c>
-      <c r="F15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>30577</v>
-      </c>
-      <c r="E16">
-        <v>1324.5999298095701</v>
-      </c>
-      <c r="F16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>53350.5</v>
-      </c>
-      <c r="E17">
-        <v>1129.4110813140869</v>
-      </c>
-      <c r="F17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>10534.5</v>
-      </c>
-      <c r="E18">
-        <v>1331.5596580505371</v>
-      </c>
-      <c r="F18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>267995</v>
-      </c>
-      <c r="E19">
-        <v>4152.3689575195313</v>
-      </c>
-      <c r="F19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>4801</v>
-      </c>
-      <c r="E20">
-        <v>1281.3662261962891</v>
-      </c>
-      <c r="F20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>191861</v>
-      </c>
-      <c r="E21">
-        <v>4403.473503112793</v>
-      </c>
-      <c r="F21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>6747</v>
-      </c>
-      <c r="E22">
-        <v>1263.7429046630859</v>
-      </c>
-      <c r="F22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>13758.5</v>
-      </c>
-      <c r="E23">
-        <v>1105.1996765136721</v>
-      </c>
-      <c r="F23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>198496.5</v>
-      </c>
-      <c r="E24">
-        <v>2169.9282760620122</v>
-      </c>
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>4543.5</v>
-      </c>
-      <c r="E25">
-        <v>327.06489181518549</v>
-      </c>
-      <c r="F25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>30929.5</v>
-      </c>
-      <c r="E26">
-        <v>776.82976913452148</v>
-      </c>
-      <c r="F26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>60607</v>
-      </c>
-      <c r="E27">
-        <v>983.43484115600586</v>
-      </c>
-      <c r="F27" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>3563</v>
-      </c>
-      <c r="E28">
-        <v>340.77566719055181</v>
-      </c>
-      <c r="F28" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>5856</v>
-      </c>
-      <c r="E29">
-        <v>520.86968994140625</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>14460</v>
-      </c>
-      <c r="E30">
-        <v>711.50711822509766</v>
-      </c>
-      <c r="F30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>5829</v>
-      </c>
-      <c r="E31">
-        <v>313.58186149597168</v>
-      </c>
-      <c r="F31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>126346.5</v>
-      </c>
-      <c r="E32">
-        <v>2984.0452270507808</v>
-      </c>
-      <c r="F32" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>12392</v>
-      </c>
-      <c r="E33">
-        <v>3157.286865234375</v>
-      </c>
-      <c r="F33" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>6127</v>
-      </c>
-      <c r="E34">
-        <v>371.40251350402832</v>
-      </c>
-      <c r="F34" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>38145</v>
-      </c>
-      <c r="E35">
-        <v>958.80579566955566</v>
-      </c>
-      <c r="F35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>109279</v>
-      </c>
-      <c r="E36">
-        <v>1368.206680297852</v>
-      </c>
-      <c r="F36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>118671</v>
-      </c>
-      <c r="E37">
-        <v>3075.5124969482422</v>
-      </c>
-      <c r="F37" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>170958.5</v>
-      </c>
-      <c r="E38">
-        <v>3718.737297058105</v>
-      </c>
-      <c r="F38" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>3616.5</v>
-      </c>
-      <c r="E39">
-        <v>316.40850067138672</v>
-      </c>
-      <c r="F39" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>4217.5</v>
-      </c>
-      <c r="E40">
-        <v>366.20524978637701</v>
-      </c>
-      <c r="F40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>100197.5</v>
-      </c>
-      <c r="E41">
-        <v>2896.5636596679692</v>
-      </c>
-      <c r="F41" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>58</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>38141.5</v>
-      </c>
-      <c r="E42">
-        <v>963.04022884368896</v>
-      </c>
-      <c r="F42" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>905</v>
-      </c>
-      <c r="E43">
-        <v>150.69182682037351</v>
-      </c>
-      <c r="F43" t="s">
-        <v>142</v>
-      </c>
-      <c r="G43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>60</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>11806</v>
-      </c>
-      <c r="E44">
-        <v>757.61591243743896</v>
-      </c>
-      <c r="F44" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <v>426</v>
-      </c>
-      <c r="E45">
-        <v>93.327404022216797</v>
-      </c>
-      <c r="F45" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>62</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>1555.5</v>
-      </c>
-      <c r="E46">
-        <v>243.8579378128052</v>
-      </c>
-      <c r="F46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>74463</v>
-      </c>
-      <c r="E47">
-        <v>2063.224285125732</v>
-      </c>
-      <c r="F47" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>64</v>
-      </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>50012</v>
-      </c>
-      <c r="E48">
-        <v>1104.9581356048579</v>
-      </c>
-      <c r="F48" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>65</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>35600</v>
-      </c>
-      <c r="E49">
-        <v>961.15849685668945</v>
-      </c>
-      <c r="F49" t="s">
-        <v>148</v>
-      </c>
-      <c r="G49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>9386</v>
-      </c>
-      <c r="E50">
-        <v>455.66859722137451</v>
-      </c>
-      <c r="F50" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>75</v>
-      </c>
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>4401.5</v>
-      </c>
-      <c r="E51">
-        <v>356.08680820465088</v>
-      </c>
-      <c r="F51" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>76</v>
-      </c>
-      <c r="B52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>86439</v>
-      </c>
-      <c r="E52">
-        <v>1483.558547973633</v>
-      </c>
-      <c r="F52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>77</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1056</v>
-      </c>
-      <c r="E53">
-        <v>117.1135387420654</v>
-      </c>
-      <c r="F53" t="s">
-        <v>152</v>
-      </c>
-      <c r="G53" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>78</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>1020</v>
-      </c>
-      <c r="E54">
-        <v>159.01557636260989</v>
-      </c>
-      <c r="F54" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>79</v>
-      </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>45201.5</v>
-      </c>
-      <c r="E55">
-        <v>1344.973213195801</v>
-      </c>
-      <c r="F55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G55" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>80</v>
-      </c>
-      <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>7576.5</v>
-      </c>
-      <c r="E56">
-        <v>444.5074348449707</v>
-      </c>
-      <c r="F56" t="s">
-        <v>155</v>
-      </c>
-      <c r="G56" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>81</v>
-      </c>
-      <c r="B57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>6756</v>
-      </c>
-      <c r="E57">
-        <v>502.17015266418463</v>
-      </c>
-      <c r="F57" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>82</v>
-      </c>
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>15537</v>
-      </c>
-      <c r="E58">
-        <v>578.75764465332031</v>
-      </c>
-      <c r="F58" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>83</v>
-      </c>
-      <c r="B59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>40109</v>
-      </c>
-      <c r="E59">
-        <v>880.85002899169922</v>
-      </c>
-      <c r="F59" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>84</v>
-      </c>
-      <c r="B60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>36133.5</v>
-      </c>
-      <c r="E60">
-        <v>1418.3402366638179</v>
-      </c>
-      <c r="F60" t="s">
-        <v>159</v>
-      </c>
-      <c r="G60" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>85</v>
-      </c>
-      <c r="B61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>30449</v>
-      </c>
-      <c r="E61">
-        <v>1144.112609863281</v>
-      </c>
-      <c r="F61" t="s">
-        <v>160</v>
-      </c>
-      <c r="G61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>86</v>
-      </c>
-      <c r="B62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>48883.5</v>
-      </c>
-      <c r="E62">
-        <v>906.02614593505859</v>
-      </c>
-      <c r="F62" t="s">
-        <v>161</v>
-      </c>
-      <c r="G62" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>87</v>
-      </c>
-      <c r="B63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>5.6568541526794434</v>
-      </c>
-      <c r="F63" t="s">
-        <v>162</v>
-      </c>
-      <c r="G63" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>88</v>
-      </c>
-      <c r="B64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>11012.5</v>
-      </c>
-      <c r="E64">
-        <v>773.99343204498291</v>
-      </c>
-      <c r="F64" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>89</v>
-      </c>
-      <c r="B65" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>24179</v>
-      </c>
-      <c r="E65">
-        <v>687.59637832641602</v>
-      </c>
-      <c r="F65" t="s">
-        <v>164</v>
-      </c>
-      <c r="G65" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>90</v>
-      </c>
-      <c r="B66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>35310</v>
-      </c>
-      <c r="E66">
-        <v>852.55987548828125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>91</v>
-      </c>
-      <c r="B67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>12960.5</v>
-      </c>
-      <c r="E67">
-        <v>544.77612686157227</v>
-      </c>
-      <c r="F67" t="s">
-        <v>166</v>
-      </c>
-      <c r="G67" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>92</v>
-      </c>
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>18220.5</v>
-      </c>
-      <c r="E68">
-        <v>588.75076293945313</v>
-      </c>
-      <c r="F68" t="s">
-        <v>167</v>
-      </c>
-      <c r="G68" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>93</v>
-      </c>
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>440967.5</v>
-      </c>
-      <c r="E69">
-        <v>2754.5373840332031</v>
-      </c>
-      <c r="F69" t="s">
-        <v>168</v>
-      </c>
-      <c r="G69" t="s">
         <v>247</v>
       </c>
     </row>
